--- a/Hybrid_Framework/DataTables/DataEngine.xlsx
+++ b/Hybrid_Framework/DataTables/DataEngine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Live_Run\Hybrid_Framework\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chinmay\git\Second_HybridFramework\Hybrid_Framework\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D3621A-5123-4B91-A3E7-4B74B857918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEABADD8-8BD5-4C79-97E3-8614CFD4552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9630" yWindow="2138" windowWidth="11265" windowHeight="9307" xr2:uid="{16E88B5A-B4CD-4FD0-9052-7F57F252A037}"/>
   </bookViews>
@@ -936,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1"/>
     </row>
